--- a/cards_stats/20161012_1914/德鲁伊_标准.xlsx
+++ b/cards_stats/20161012_1914/德鲁伊_标准.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z/Sync/Personal/Coding/Python/hs_data/cards_stats/20161012_1914/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-600" yWindow="-17500" windowWidth="25360" windowHeight="14240"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cards" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="top_decks" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="career_decks" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="cards" sheetId="1" r:id="rId1"/>
+    <sheet name="top_decks" sheetId="2" r:id="rId2"/>
+    <sheet name="career_decks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -438,20 +451,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -466,17 +485,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N24" totalsRowShown="0">
+  <autoFilter ref="A1:N24"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="cost"/>
+    <tableColumn id="4" name="avg_count" dataDxfId="3"/>
+    <tableColumn id="5" name="rarity"/>
+    <tableColumn id="6" name="description"/>
+    <tableColumn id="7" name="avg_win_rate" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="8" name="best_win_rate" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="9" name="syn_win_rate" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="10" name="played"/>
+    <tableColumn id="11" name="users"/>
+    <tableColumn id="12" name="used_in_decks"/>
+    <tableColumn id="13" name="score"/>
+    <tableColumn id="14" name="recommend"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,20 +828,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="66.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" customWidth="1"/>
+    <col min="14" max="14" width="109.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -820,1010 +896,1009 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.5697674418604651</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.571600787577086</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="G2" s="2">
+        <v>0.56976744186046513</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.57160078757708599</v>
+      </c>
+      <c r="J2">
         <v>1118</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>243</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>7</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1">
         <v>1.666666666666667</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.5660214958840016</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5689786253935615</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="G3" s="2">
+        <v>0.56602149588400164</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.56897862539356148</v>
+      </c>
+      <c r="J3">
         <v>135933</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>17987</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>8</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1">
         <v>1.636363636363636</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.5569256271037364</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.5626115172473758</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="G4" s="2">
+        <v>0.55692562710373639</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.56261151724737579</v>
+      </c>
+      <c r="J4">
         <v>236484</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>35330</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>11</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>6</v>
       </c>
       <c r="N4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="1">
         <v>1.571428571428571</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.5577949419368681</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5719369521874882</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.5620375450120541</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="G5" s="2">
+        <v>0.55779494193686807</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.57193695218748819</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.56203754501205405</v>
+      </c>
+      <c r="J5">
         <v>223722</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>32803</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>7</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>7</v>
       </c>
       <c r="N5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.5557539115159933</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5617913163359557</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="G6" s="2">
+        <v>0.55575391151599329</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.56179131633595569</v>
+      </c>
+      <c r="J6">
         <v>244790</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>36890</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>11</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>7</v>
       </c>
       <c r="N6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2">
         <v>0.555732464422804</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.5617763033707232</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.56177630337072315</v>
+      </c>
+      <c r="J7">
         <v>243063</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>36525</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>10</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>6</v>
       </c>
       <c r="N7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="1">
         <v>1.5</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2">
         <v>0.5570153453809964</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.5719369521874882</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" s="2">
+        <v>0.57193695218748819</v>
+      </c>
+      <c r="I8" s="2">
         <v>0.5614918274229439</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>227430</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>33396</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>7</v>
       </c>
       <c r="N8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="1">
         <v>1.833333333333333</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.5558282527816563</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5719369521874882</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.5606608626034058</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="G9" s="2">
+        <v>0.55582825278165626</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.57193695218748819</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.56066086260340575</v>
+      </c>
+      <c r="J9">
         <v>230618</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>33770</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>6</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>9</v>
       </c>
       <c r="N9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>7</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.5557915024243905</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5719369521874882</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.5606351373533197</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="G10" s="2">
+        <v>0.55579150242439046</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.57193695218748819</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.56063513735331971</v>
+      </c>
+      <c r="J10">
         <v>229336</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>33502</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>6</v>
       </c>
       <c r="N10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="1">
         <v>1.8</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>52</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.5557915024243905</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.5719369521874882</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.5606351373533197</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="G11" s="2">
+        <v>0.55579150242439046</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.57193695218748819</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.56063513735331971</v>
+      </c>
+      <c r="J11">
         <v>229336</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>33502</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>6</v>
       </c>
       <c r="N11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s"/>
-      <c r="G12" t="n">
-        <v>0.5556334667966724</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.5719369521874882</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="G12" s="2">
+        <v>0.55563346679667236</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.57193695218748819</v>
+      </c>
+      <c r="I12" s="2">
         <v>0.5605245124139171</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>241015</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>36089</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>8</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>7</v>
       </c>
       <c r="N12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" t="n">
-        <v>1.761904761904762</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13" s="1">
+        <v>1.7619047619047621</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>59</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.5534187660623437</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.560156714518401</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="G13" s="2">
+        <v>0.55341876606234375</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.56015671451840099</v>
+      </c>
+      <c r="J13">
         <v>343194</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>46718</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>21</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>10</v>
       </c>
       <c r="N13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>5</v>
       </c>
       <c r="F14" t="s">
         <v>63</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2">
         <v>0.5520093929888048</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.5719369521874882</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.5579876607484098</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="H14" s="2">
+        <v>0.57193695218748819</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.55798766074840978</v>
+      </c>
+      <c r="J14">
         <v>280209</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>30990</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>13</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>10</v>
       </c>
       <c r="N14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>67</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.5452524173115704</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.5544402703928596</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="G15" s="2">
+        <v>0.54525241731157037</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.55444027039285959</v>
+      </c>
+      <c r="J15">
         <v>116038</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>20118</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>8</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>10</v>
       </c>
       <c r="N15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>69</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="1">
         <v>1.85</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>71</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.542819097671601</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.552736946644881</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="G16" s="2">
+        <v>0.54281909767160097</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.55273694664488104</v>
+      </c>
+      <c r="J16">
         <v>508418</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>63973</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>20</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>8</v>
       </c>
       <c r="N16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" t="n">
-        <v>1.941176470588235</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17" s="1">
+        <v>1.9411764705882351</v>
+      </c>
+      <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.5324061004352765</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.5454478485794539</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="G17" s="2">
+        <v>0.53240610043527647</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.54544784857945394</v>
+      </c>
+      <c r="J17">
         <v>304634</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>35121</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>17</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>7</v>
       </c>
       <c r="N17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
-        <v>1.96969696969697</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18" s="1">
+        <v>1.9696969696969699</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>79</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.52670018423669</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.5414537072404433</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="G18" s="2">
+        <v>0.52670018423668996</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.54145370724044328</v>
+      </c>
+      <c r="J18">
         <v>848908</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>102564</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>33</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>4</v>
       </c>
       <c r="N18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>83</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.5265609365384344</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.5413562338516644</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="G19" s="2">
+        <v>0.52656093653843439</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.54135623385166443</v>
+      </c>
+      <c r="J19">
         <v>851476</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>102945</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>34</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>10</v>
       </c>
       <c r="N19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>87</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.5265609365384344</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.5413562338516644</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="G20" s="2">
+        <v>0.52656093653843439</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.54135623385166443</v>
+      </c>
+      <c r="J20">
         <v>851476</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>102945</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>34</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>4</v>
       </c>
       <c r="N20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>89</v>
       </c>
       <c r="B21" t="s">
         <v>90</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="1">
         <v>1.9</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.5262684328318868</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.5411514812570811</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="G21" s="2">
+        <v>0.52626843283188685</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.54115148125708112</v>
+      </c>
+      <c r="J21">
         <v>834652</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>100079</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>30</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>9</v>
       </c>
       <c r="N21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>93</v>
       </c>
       <c r="B22" t="s">
         <v>94</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>95</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.5191748327392436</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.5361859611922308</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="G22" s="2">
+        <v>0.51917483273924359</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.53618596119223083</v>
+      </c>
+      <c r="J22">
         <v>704439</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>82993</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>29</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>10</v>
       </c>
       <c r="N22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>97</v>
       </c>
       <c r="B23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
       <c r="F23" t="s">
         <v>99</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.5152109378473029</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.5334112347678723</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="G23" s="2">
+        <v>0.51521093784730287</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.53341123476787233</v>
+      </c>
+      <c r="J23">
         <v>607359</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>66506</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>25</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>9</v>
       </c>
       <c r="N23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>101</v>
       </c>
       <c r="B24" t="s">
         <v>102</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="1">
         <v>1.631578947368421</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>103</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.5145668240142268</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.5758785942492013</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.5329603550847192</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="G24" s="2">
+        <v>0.51456682401422682</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.57587859424920129</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.53296035508471917</v>
+      </c>
+      <c r="J24">
         <v>595497</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>64417</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>19</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>8</v>
       </c>
       <c r="N24" t="s">
@@ -1831,224 +1906,380 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <conditionalFormatting sqref="C2:C24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D24">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J24">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3B497EA5-27B1-2E43-9F83-7B574AB253CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K24">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{91C56A53-49C4-B74C-9BE7-457BCAA82085}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L24">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{76F3DCA1-709A-C04C-982B-65AF406C61B6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3B497EA5-27B1-2E43-9F83-7B574AB253CE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2:J24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{91C56A53-49C4-B74C-9BE7-457BCAA82085}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K2:K24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{76F3DCA1-709A-C04C-982B-65AF406C61B6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L2:L24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>